--- a/analisis/casos_de_usos/CUS-004 consultar_modificar_reservas.xlsx
+++ b/analisis/casos_de_usos/CUS-004 consultar_modificar_reservas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ratos\casos_de_uso\appp\analisis\casos_de_usos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65464479-5614-4C07-A021-28FF4E5A8830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA0B9DA-D7D1-472D-A4CC-6E0C727CF2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="16800" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16800" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CASO DE USO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ID CASO DE USO</t>
   </si>
@@ -77,9 +77,6 @@
 </t>
   </si>
   <si>
-    <t>El sistema muestra un mensaje de error "El monto debe ser mayor que 0".</t>
-  </si>
-  <si>
     <t>PREGUNTAS GENERALES / COMENTARIOS</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
   </si>
   <si>
     <t>Consultar/modificar reservas</t>
-  </si>
-  <si>
-    <t>El administrador veridifcara las reservas del cliente</t>
   </si>
   <si>
     <t>El administrador modificara o elminara las reservas del cliente si es necesario.</t>
@@ -123,12 +117,34 @@
   <si>
     <t>Las reservas del cliente elegido se modificaran o eliminaran.</t>
   </si>
+  <si>
+    <t>Consultar la id del cliente</t>
+  </si>
+  <si>
+    <t>El historial de la cuenta.</t>
+  </si>
+  <si>
+    <t>El administrador selecciona la opción "consultar cliente".</t>
+  </si>
+  <si>
+    <t>El administrador verificara las reservas del cliente</t>
+  </si>
+  <si>
+    <t>El sistema recupera la información de la cuenta.</t>
+  </si>
+  <si>
+    <t>El sistema no puede recuperar la información de la cuenta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema muestra un mensaje de error "No se puede recuperar la información de la cuenta en este momento".
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -214,6 +230,29 @@
       <color theme="0"/>
       <name val="Century Gothic"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -265,7 +304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -414,30 +453,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFBFBFBF"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FFBFBFBF"/>
@@ -542,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -606,47 +623,44 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -656,17 +670,29 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,11 +912,11 @@
     <tabColor rgb="FF8496B0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V987"/>
+  <dimension ref="A1:V990"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1012,10 +1038,10 @@
       <c r="A5" s="5"/>
       <c r="B5" s="10"/>
       <c r="C5" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="8"/>
@@ -1165,10 +1191,10 @@
     <row r="11" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="44" t="s">
-        <v>16</v>
+      <c r="C11" s="41" t="s">
+        <v>15</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="5"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -1296,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1324,7 +1350,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1351,7 +1377,9 @@
       <c r="B18" s="22">
         <v>3</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="23" t="s">
+        <v>27</v>
+      </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="8"/>
@@ -1404,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1431,7 +1459,9 @@
       <c r="B21" s="22">
         <v>2</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="8"/>
@@ -1505,11 +1535,11 @@
       <c r="B24" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -1559,11 +1589,11 @@
       <c r="B26" s="20">
         <v>1</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>20</v>
+      <c r="C26" s="38" t="s">
+        <v>29</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="51"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -1582,16 +1612,16 @@
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25"/>
-      <c r="B27" s="27">
+      <c r="B27" s="22">
         <v>2</v>
       </c>
-      <c r="C27" s="41" t="s">
-        <v>21</v>
+      <c r="C27" s="49" t="s">
+        <v>30</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="43"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1612,14 +1642,14 @@
     </row>
     <row r="28" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25"/>
-      <c r="B28" s="27">
+      <c r="B28" s="22">
         <v>3</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>13</v>
+      <c r="C28" s="49" t="s">
+        <v>31</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1638,14 +1668,16 @@
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
     </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
       <c r="B29" s="27">
         <v>4</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="53"/>
+      <c r="C29" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -1664,14 +1696,16 @@
       <c r="U29" s="8"/>
       <c r="V29" s="8"/>
     </row>
-    <row r="30" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25"/>
-      <c r="B30" s="18" t="s">
-        <v>25</v>
+      <c r="B30" s="27">
+        <v>5</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="C30" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1690,16 +1724,14 @@
       <c r="U30" s="8"/>
       <c r="V30" s="8"/>
     </row>
-    <row r="31" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25"/>
-      <c r="B31" s="22">
-        <v>5</v>
+      <c r="B31" s="27">
+        <v>6</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -1718,16 +1750,14 @@
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
     </row>
-    <row r="32" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25"/>
-      <c r="B32" s="29">
-        <v>6</v>
+      <c r="B32" s="18" t="s">
+        <v>23</v>
       </c>
-      <c r="C32" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -1746,14 +1776,16 @@
       <c r="U32" s="8"/>
       <c r="V32" s="8"/>
     </row>
-    <row r="33" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
-      <c r="B33" s="18" t="s">
-        <v>26</v>
+      <c r="B33" s="22">
+        <v>7</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="C33" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1772,16 +1804,16 @@
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
     </row>
-    <row r="34" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25"/>
       <c r="B34" s="29">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="C34" s="41" t="s">
-        <v>24</v>
+      <c r="C34" s="40" t="s">
+        <v>20</v>
       </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="47"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -1800,16 +1832,14 @@
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
     </row>
-    <row r="35" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25"/>
-      <c r="B35" s="29">
-        <v>8</v>
+      <c r="B35" s="18" t="s">
+        <v>24</v>
       </c>
-      <c r="C35" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -1828,12 +1858,16 @@
       <c r="U35" s="8"/>
       <c r="V35" s="8"/>
     </row>
-    <row r="36" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+    <row r="36" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="29">
+        <v>9</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -1852,38 +1886,44 @@
       <c r="U36" s="8"/>
       <c r="V36" s="8"/>
     </row>
-    <row r="37" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="30" t="s">
-        <v>15</v>
+    <row r="37" spans="1:22" s="55" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="52"/>
+      <c r="B37" s="53">
+        <v>10</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-    </row>
-    <row r="38" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="54"/>
+      <c r="U37" s="54"/>
+      <c r="V37" s="54"/>
+    </row>
+    <row r="38" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="36"/>
+      <c r="B38" s="29">
+        <v>11</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="57"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -1902,12 +1942,12 @@
       <c r="U38" s="8"/>
       <c r="V38" s="8"/>
     </row>
-    <row r="39" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="36"/>
+    <row r="39" spans="1:22" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -1926,12 +1966,14 @@
       <c r="U39" s="8"/>
       <c r="V39" s="8"/>
     </row>
-    <row r="40" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
+    <row r="40" spans="1:22" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -1952,7 +1994,7 @@
     </row>
     <row r="41" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25"/>
-      <c r="B41" s="27"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="34"/>
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
@@ -2022,12 +2064,12 @@
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
     </row>
-    <row r="44" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
+    <row r="44" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="36"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2046,12 +2088,12 @@
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
     </row>
-    <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+    <row r="45" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="36"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -2070,12 +2112,12 @@
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
     </row>
-    <row r="46" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+    <row r="46" spans="1:22" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -2094,7 +2136,7 @@
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
     </row>
-    <row r="47" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -6847,11 +6889,11 @@
       <c r="V244" s="8"/>
     </row>
     <row r="245" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="8"/>
-      <c r="B245" s="8"/>
-      <c r="C245" s="8"/>
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
+      <c r="A245" s="14"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="14"/>
       <c r="F245" s="8"/>
       <c r="G245" s="8"/>
       <c r="H245" s="8"/>
@@ -6871,11 +6913,11 @@
       <c r="V245" s="8"/>
     </row>
     <row r="246" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="8"/>
-      <c r="B246" s="8"/>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
+      <c r="A246" s="14"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="14"/>
       <c r="F246" s="8"/>
       <c r="G246" s="8"/>
       <c r="H246" s="8"/>
@@ -6895,11 +6937,11 @@
       <c r="V246" s="8"/>
     </row>
     <row r="247" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="8"/>
-      <c r="B247" s="8"/>
-      <c r="C247" s="8"/>
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
+      <c r="A247" s="14"/>
+      <c r="B247" s="14"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="14"/>
       <c r="F247" s="8"/>
       <c r="G247" s="8"/>
       <c r="H247" s="8"/>
@@ -24678,21 +24720,96 @@
       <c r="U987" s="8"/>
       <c r="V987" s="8"/>
     </row>
+    <row r="988" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A988" s="8"/>
+      <c r="B988" s="8"/>
+      <c r="C988" s="8"/>
+      <c r="D988" s="8"/>
+      <c r="E988" s="8"/>
+      <c r="F988" s="8"/>
+      <c r="G988" s="8"/>
+      <c r="H988" s="8"/>
+      <c r="I988" s="8"/>
+      <c r="J988" s="8"/>
+      <c r="K988" s="8"/>
+      <c r="L988" s="8"/>
+      <c r="M988" s="8"/>
+      <c r="N988" s="8"/>
+      <c r="O988" s="8"/>
+      <c r="P988" s="8"/>
+      <c r="Q988" s="8"/>
+      <c r="R988" s="8"/>
+      <c r="S988" s="8"/>
+      <c r="T988" s="8"/>
+      <c r="U988" s="8"/>
+      <c r="V988" s="8"/>
+    </row>
+    <row r="989" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A989" s="8"/>
+      <c r="B989" s="8"/>
+      <c r="C989" s="8"/>
+      <c r="D989" s="8"/>
+      <c r="E989" s="8"/>
+      <c r="F989" s="8"/>
+      <c r="G989" s="8"/>
+      <c r="H989" s="8"/>
+      <c r="I989" s="8"/>
+      <c r="J989" s="8"/>
+      <c r="K989" s="8"/>
+      <c r="L989" s="8"/>
+      <c r="M989" s="8"/>
+      <c r="N989" s="8"/>
+      <c r="O989" s="8"/>
+      <c r="P989" s="8"/>
+      <c r="Q989" s="8"/>
+      <c r="R989" s="8"/>
+      <c r="S989" s="8"/>
+      <c r="T989" s="8"/>
+      <c r="U989" s="8"/>
+      <c r="V989" s="8"/>
+    </row>
+    <row r="990" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A990" s="8"/>
+      <c r="B990" s="8"/>
+      <c r="C990" s="8"/>
+      <c r="D990" s="8"/>
+      <c r="E990" s="8"/>
+      <c r="F990" s="8"/>
+      <c r="G990" s="8"/>
+      <c r="H990" s="8"/>
+      <c r="I990" s="8"/>
+      <c r="J990" s="8"/>
+      <c r="K990" s="8"/>
+      <c r="L990" s="8"/>
+      <c r="M990" s="8"/>
+      <c r="N990" s="8"/>
+      <c r="O990" s="8"/>
+      <c r="P990" s="8"/>
+      <c r="Q990" s="8"/>
+      <c r="R990" s="8"/>
+      <c r="S990" s="8"/>
+      <c r="T990" s="8"/>
+      <c r="U990" s="8"/>
+      <c r="V990" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C32:E32"/>
+  <mergeCells count="13">
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C38:E38"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C33:E33"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>